--- a/data/pca/factorExposure/factorExposure_2013-03-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-01.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002538055243787755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002038330125363534</v>
+      </c>
+      <c r="C2">
+        <v>-0.0319361439140236</v>
+      </c>
+      <c r="D2">
+        <v>0.002217681601552738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001853087335387525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006165270936998648</v>
+      </c>
+      <c r="C4">
+        <v>-0.08504588409994976</v>
+      </c>
+      <c r="D4">
+        <v>0.07899857812841463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0006487289223968526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01368624519785293</v>
+      </c>
+      <c r="C6">
+        <v>-0.112076155602341</v>
+      </c>
+      <c r="D6">
+        <v>0.03251639026836473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001498086608079411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004842352378847344</v>
+      </c>
+      <c r="C7">
+        <v>-0.05721676040030132</v>
+      </c>
+      <c r="D7">
+        <v>0.03295591796418462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004072336907720152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005709501083280846</v>
+      </c>
+      <c r="C8">
+        <v>-0.03917908390568668</v>
+      </c>
+      <c r="D8">
+        <v>0.04322380024098679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004087284069368636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004296796745172978</v>
+      </c>
+      <c r="C9">
+        <v>-0.07160000102702271</v>
+      </c>
+      <c r="D9">
+        <v>0.06957487614589888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004262771147427536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.00536738379369828</v>
+      </c>
+      <c r="C10">
+        <v>-0.05850181234900717</v>
+      </c>
+      <c r="D10">
+        <v>-0.1999961236255642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002584859121668909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005460324345033819</v>
+      </c>
+      <c r="C11">
+        <v>-0.08119079699582613</v>
+      </c>
+      <c r="D11">
+        <v>0.05937214193057085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004845389612721352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004066508719354234</v>
+      </c>
+      <c r="C12">
+        <v>-0.06497215217467198</v>
+      </c>
+      <c r="D12">
+        <v>0.0439954222391332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003272899463365109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008669021822543059</v>
+      </c>
+      <c r="C13">
+        <v>-0.06722787370928716</v>
+      </c>
+      <c r="D13">
+        <v>0.06717408844036551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001265565747474757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001563029624576412</v>
+      </c>
+      <c r="C14">
+        <v>-0.04738692182147379</v>
+      </c>
+      <c r="D14">
+        <v>0.007621538715268112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009054266639456003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005998229744671665</v>
+      </c>
+      <c r="C15">
+        <v>-0.04383725892580338</v>
+      </c>
+      <c r="D15">
+        <v>0.02936275078183355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00117193886669209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005027588653722315</v>
+      </c>
+      <c r="C16">
+        <v>-0.06693277312988392</v>
+      </c>
+      <c r="D16">
+        <v>0.04467943040590685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001144855501319463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008819074724914869</v>
+      </c>
+      <c r="C20">
+        <v>-0.06767664279475066</v>
+      </c>
+      <c r="D20">
+        <v>0.04506445686837601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005215981766469278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009797939546410561</v>
+      </c>
+      <c r="C21">
+        <v>-0.02386825435675347</v>
+      </c>
+      <c r="D21">
+        <v>0.03303519190691988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01776542990172576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006866538232516041</v>
+      </c>
+      <c r="C22">
+        <v>-0.0949802125892336</v>
+      </c>
+      <c r="D22">
+        <v>0.09686749488292924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01807768031496166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006687242514050437</v>
+      </c>
+      <c r="C23">
+        <v>-0.09576507672424656</v>
+      </c>
+      <c r="D23">
+        <v>0.09699323215778644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001844826084645527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005108931811380425</v>
+      </c>
+      <c r="C24">
+        <v>-0.07613942518485414</v>
+      </c>
+      <c r="D24">
+        <v>0.05722889784404007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003839834110983853</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002835820049616997</v>
+      </c>
+      <c r="C25">
+        <v>-0.07853009784374257</v>
+      </c>
+      <c r="D25">
+        <v>0.0648651935036358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005560910502880028</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003524672768689904</v>
+      </c>
+      <c r="C26">
+        <v>-0.04180882683405537</v>
+      </c>
+      <c r="D26">
+        <v>0.02420889311313106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004011710692726562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001078355658904979</v>
+      </c>
+      <c r="C28">
+        <v>-0.1057113773979939</v>
+      </c>
+      <c r="D28">
+        <v>-0.319405849935095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009451311695960779</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003062983633883582</v>
+      </c>
+      <c r="C29">
+        <v>-0.04973214659671418</v>
+      </c>
+      <c r="D29">
+        <v>0.003218647491614073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003258186014868067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009026861988711473</v>
+      </c>
+      <c r="C30">
+        <v>-0.144784674283463</v>
+      </c>
+      <c r="D30">
+        <v>0.1006917155797531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001076501012310521</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006185644411426897</v>
+      </c>
+      <c r="C31">
+        <v>-0.0456700278176914</v>
+      </c>
+      <c r="D31">
+        <v>0.03215016867361901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0002048587513146133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003915938968844042</v>
+      </c>
+      <c r="C32">
+        <v>-0.04183334568058795</v>
+      </c>
+      <c r="D32">
+        <v>0.02156155156948536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002913025314226303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008158228433092933</v>
+      </c>
+      <c r="C33">
+        <v>-0.08758248305522581</v>
+      </c>
+      <c r="D33">
+        <v>0.0686698578379337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004203965646464112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003938511080179652</v>
+      </c>
+      <c r="C34">
+        <v>-0.0589684329385403</v>
+      </c>
+      <c r="D34">
+        <v>0.0504468787727832</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002249712795323876</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004862511407086555</v>
+      </c>
+      <c r="C35">
+        <v>-0.04006660453709192</v>
+      </c>
+      <c r="D35">
+        <v>0.01365381423285238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004016660355457512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001363381082349338</v>
+      </c>
+      <c r="C36">
+        <v>-0.02466892511215973</v>
+      </c>
+      <c r="D36">
+        <v>0.02153832000887429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002634725139371792</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009438985318282618</v>
+      </c>
+      <c r="C38">
+        <v>-0.03380628032606226</v>
+      </c>
+      <c r="D38">
+        <v>0.01756025176798262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01231184998496583</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0008356330215096286</v>
+      </c>
+      <c r="C39">
+        <v>-0.1179782748115919</v>
+      </c>
+      <c r="D39">
+        <v>0.07100961166942821</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009097568448321497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002132563158330976</v>
+      </c>
+      <c r="C40">
+        <v>-0.0884214627908151</v>
+      </c>
+      <c r="D40">
+        <v>0.01562195207961725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002995345901640076</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007234558664314664</v>
+      </c>
+      <c r="C41">
+        <v>-0.03850372942260002</v>
+      </c>
+      <c r="D41">
+        <v>0.03481597024096868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003024809970193501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00363178383643906</v>
+      </c>
+      <c r="C43">
+        <v>-0.05233796799945822</v>
+      </c>
+      <c r="D43">
+        <v>0.02290882091230473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003036476189386954</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003140844593114422</v>
+      </c>
+      <c r="C44">
+        <v>-0.1120709476224345</v>
+      </c>
+      <c r="D44">
+        <v>0.0692648786955829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001425131144808691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002295085188322169</v>
+      </c>
+      <c r="C46">
+        <v>-0.03462575036973276</v>
+      </c>
+      <c r="D46">
+        <v>0.03024897687373275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002559954351426065</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002703455312503638</v>
+      </c>
+      <c r="C47">
+        <v>-0.03760264164531481</v>
+      </c>
+      <c r="D47">
+        <v>0.02546915770502394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003706438293076494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006424470684607326</v>
+      </c>
+      <c r="C48">
+        <v>-0.0294810097809371</v>
+      </c>
+      <c r="D48">
+        <v>0.03158357410317426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01323571138097922</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01492442732191052</v>
+      </c>
+      <c r="C49">
+        <v>-0.183546718036898</v>
+      </c>
+      <c r="D49">
+        <v>0.01327180344903962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006854990215786102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003583295222733563</v>
+      </c>
+      <c r="C50">
+        <v>-0.04435771002414111</v>
+      </c>
+      <c r="D50">
+        <v>0.03581002936577889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006343421581964845</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004377730259031105</v>
+      </c>
+      <c r="C51">
+        <v>-0.02580491271026493</v>
+      </c>
+      <c r="D51">
+        <v>0.01986223910327591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006703456097655986</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02052730031571402</v>
+      </c>
+      <c r="C53">
+        <v>-0.1692202658584376</v>
+      </c>
+      <c r="D53">
+        <v>0.03871075089711389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001631042159623145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008668276688027452</v>
+      </c>
+      <c r="C54">
+        <v>-0.05629264534302158</v>
+      </c>
+      <c r="D54">
+        <v>0.04123169537392962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004238553161473185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009438755716720915</v>
+      </c>
+      <c r="C55">
+        <v>-0.1099773641397426</v>
+      </c>
+      <c r="D55">
+        <v>0.04570979637516449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002900137265250263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01993266996161206</v>
+      </c>
+      <c r="C56">
+        <v>-0.1752892015508712</v>
+      </c>
+      <c r="D56">
+        <v>0.03705831981917679</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007056426553395412</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01963849182237533</v>
+      </c>
+      <c r="C58">
+        <v>-0.1136949395207013</v>
+      </c>
+      <c r="D58">
+        <v>0.0472193053733271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006721819675689033</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009302921707618145</v>
+      </c>
+      <c r="C59">
+        <v>-0.1603606140290455</v>
+      </c>
+      <c r="D59">
+        <v>-0.3070220068749135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004163645133347357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02318707089166263</v>
+      </c>
+      <c r="C60">
+        <v>-0.2207109417938986</v>
+      </c>
+      <c r="D60">
+        <v>0.02612273421955458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01397009012890388</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00192836485501823</v>
+      </c>
+      <c r="C61">
+        <v>-0.09569828020806893</v>
+      </c>
+      <c r="D61">
+        <v>0.05623136362211255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1684609963436656</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1445070899257179</v>
+      </c>
+      <c r="C62">
+        <v>-0.09037674653147168</v>
+      </c>
+      <c r="D62">
+        <v>0.05144456338530169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001181081618758709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006208790537280891</v>
+      </c>
+      <c r="C63">
+        <v>-0.0569929475605219</v>
+      </c>
+      <c r="D63">
+        <v>0.02417772923702518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004868625084861099</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0149512607186908</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045917370219043</v>
+      </c>
+      <c r="D64">
+        <v>0.05774225251964065</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002101939233479184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0174581789279868</v>
+      </c>
+      <c r="C65">
+        <v>-0.1201912188475891</v>
+      </c>
+      <c r="D65">
+        <v>0.01863223310113288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007174551267518954</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01271657830599912</v>
+      </c>
+      <c r="C66">
+        <v>-0.1606351328733228</v>
+      </c>
+      <c r="D66">
+        <v>0.1108675392245915</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003954338293967139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01555169114691837</v>
+      </c>
+      <c r="C67">
+        <v>-0.06488083240400651</v>
+      </c>
+      <c r="D67">
+        <v>0.02523333297100218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006198416645556233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.000570400646261167</v>
+      </c>
+      <c r="C68">
+        <v>-0.08691600856354492</v>
+      </c>
+      <c r="D68">
+        <v>-0.2539095515867925</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002740310463575844</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006026126574096768</v>
+      </c>
+      <c r="C69">
+        <v>-0.05074249763690793</v>
+      </c>
+      <c r="D69">
+        <v>0.03909500403845043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002663804805737778</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001801621934560949</v>
+      </c>
+      <c r="C70">
+        <v>-0.002347226290851229</v>
+      </c>
+      <c r="D70">
+        <v>0.00118199172370505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002283595404340221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005807662229404448</v>
+      </c>
+      <c r="C71">
+        <v>-0.09677264478431846</v>
+      </c>
+      <c r="D71">
+        <v>-0.3016078310297244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00468296833508034</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01552756161221341</v>
+      </c>
+      <c r="C72">
+        <v>-0.1500002379369683</v>
+      </c>
+      <c r="D72">
+        <v>0.0213097480030504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01236088133378447</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02939998248715594</v>
+      </c>
+      <c r="C73">
+        <v>-0.2756538896246191</v>
+      </c>
+      <c r="D73">
+        <v>0.04631515904193234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004717511504366442</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00172345396610544</v>
+      </c>
+      <c r="C74">
+        <v>-0.1059774205734841</v>
+      </c>
+      <c r="D74">
+        <v>0.03952112414732709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002342323647068196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01089179330835784</v>
+      </c>
+      <c r="C75">
+        <v>-0.1298146731035205</v>
+      </c>
+      <c r="D75">
+        <v>0.02385448691487503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009410020004268832</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0216637640391634</v>
+      </c>
+      <c r="C76">
+        <v>-0.1509469365001065</v>
+      </c>
+      <c r="D76">
+        <v>0.06717098959994942</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0006693363454417662</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02341642918764665</v>
+      </c>
+      <c r="C77">
+        <v>-0.1301073165467058</v>
+      </c>
+      <c r="D77">
+        <v>0.05268227707305509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000994550569540014</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01442095073645287</v>
+      </c>
+      <c r="C78">
+        <v>-0.09476839521504077</v>
+      </c>
+      <c r="D78">
+        <v>0.06621870904500994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02373265096587214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03749485799987509</v>
+      </c>
+      <c r="C79">
+        <v>-0.1569298757383578</v>
+      </c>
+      <c r="D79">
+        <v>0.03649698705670099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004464876776776455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01056670085876838</v>
+      </c>
+      <c r="C80">
+        <v>-0.04330615779286442</v>
+      </c>
+      <c r="D80">
+        <v>0.02738848051624915</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001030989203060513</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01501130614610472</v>
+      </c>
+      <c r="C81">
+        <v>-0.1272556730834024</v>
+      </c>
+      <c r="D81">
+        <v>0.04380655619585322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00588562386902558</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01988102539023943</v>
+      </c>
+      <c r="C82">
+        <v>-0.1449618013591131</v>
+      </c>
+      <c r="D82">
+        <v>0.04469995497066171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009363523437852496</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.00998250623255514</v>
+      </c>
+      <c r="C83">
+        <v>-0.05701349069333254</v>
+      </c>
+      <c r="D83">
+        <v>0.05566962831451471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01359830326316918</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01164390194158284</v>
+      </c>
+      <c r="C84">
+        <v>-0.03690361584694345</v>
+      </c>
+      <c r="D84">
+        <v>-0.006128740592123768</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01469266867865755</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02806943302245246</v>
+      </c>
+      <c r="C85">
+        <v>-0.128497907574146</v>
+      </c>
+      <c r="D85">
+        <v>0.04781999745160583</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007240230070548907</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005452353022387533</v>
+      </c>
+      <c r="C86">
+        <v>-0.0505422921000148</v>
+      </c>
+      <c r="D86">
+        <v>0.02204808210334219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004279374656644538</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01013876339420768</v>
+      </c>
+      <c r="C87">
+        <v>-0.1315600398388572</v>
+      </c>
+      <c r="D87">
+        <v>0.06440024585116763</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01289815874710493</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002974646650499911</v>
+      </c>
+      <c r="C88">
+        <v>-0.06741383459027427</v>
+      </c>
+      <c r="D88">
+        <v>0.009533297751538546</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01435507181610733</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001766311512757617</v>
+      </c>
+      <c r="C89">
+        <v>-0.1447506970924759</v>
+      </c>
+      <c r="D89">
+        <v>-0.3472689321664095</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002383097949235201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006608581065114914</v>
+      </c>
+      <c r="C90">
+        <v>-0.1210080739730807</v>
+      </c>
+      <c r="D90">
+        <v>-0.3268605500727034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001320975258809034</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01040622896336976</v>
+      </c>
+      <c r="C91">
+        <v>-0.1036455861643906</v>
+      </c>
+      <c r="D91">
+        <v>0.02356590765500924</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008533609731295711</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0005026976270376907</v>
+      </c>
+      <c r="C92">
+        <v>-0.1341275897743746</v>
+      </c>
+      <c r="D92">
+        <v>-0.3356762312920007</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001950152790721222</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004555549969434079</v>
+      </c>
+      <c r="C93">
+        <v>-0.103172029474522</v>
+      </c>
+      <c r="D93">
+        <v>-0.311302455271564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004197805644661568</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02240143598612813</v>
+      </c>
+      <c r="C94">
+        <v>-0.1508276374509774</v>
+      </c>
+      <c r="D94">
+        <v>0.05094387593564038</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005355040753139972</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01633856697827197</v>
+      </c>
+      <c r="C95">
+        <v>-0.1278694968544525</v>
+      </c>
+      <c r="D95">
+        <v>0.06498262411576299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001788968187773142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0350326657200775</v>
+      </c>
+      <c r="C97">
+        <v>-0.2029697198456797</v>
+      </c>
+      <c r="D97">
+        <v>-0.009823165112371201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004147213649074262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03627253144489253</v>
+      </c>
+      <c r="C98">
+        <v>-0.2466968673638933</v>
+      </c>
+      <c r="D98">
+        <v>0.0474708884292249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838157112269946</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9824778025655493</v>
+      </c>
+      <c r="C99">
+        <v>0.1137857683301939</v>
+      </c>
+      <c r="D99">
+        <v>-0.02826057846264805</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008527568136584144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00310811090438289</v>
+      </c>
+      <c r="C101">
+        <v>-0.04985960766299564</v>
+      </c>
+      <c r="D101">
+        <v>0.003382171458312938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
